--- a/src/test/resources/getconfig.xlsx
+++ b/src/test/resources/getconfig.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -18,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1602202688" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1602202688" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1602202688" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1602202688"/>
+      <pm:revision xmlns:pm="smNativeData" day="1602809269" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1602809269" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1602809269" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1602809269"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="180">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>Account01</t>
+  </si>
+  <si>
+    <t>centos75</t>
   </si>
   <si>
     <t>VMWare</t>
@@ -596,7 +599,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -611,7 +614,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -627,7 +630,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -644,7 +647,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602202688" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -653,7 +656,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,7 +669,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -677,7 +680,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -688,7 +691,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -699,7 +702,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -710,7 +713,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -721,7 +724,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -732,7 +735,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -743,7 +746,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -754,7 +757,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -765,7 +768,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -776,7 +779,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -787,7 +790,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -798,7 +801,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -809,7 +812,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -820,7 +823,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -831,7 +834,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -842,7 +845,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -853,7 +856,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -870,7 +873,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -881,13 +884,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602202688" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -903,7 +917,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688"/>
+          <pm:border xmlns:pm="smNativeData" id="1602809269"/>
         </ext>
       </extLst>
     </border>
@@ -922,7 +936,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -946,7 +960,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688"/>
+          <pm:border xmlns:pm="smNativeData" id="1602809269"/>
         </ext>
       </extLst>
     </border>
@@ -965,7 +979,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -987,7 +1001,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1008,7 +1022,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1030,7 +1044,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1052,7 +1066,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1073,7 +1087,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1095,7 +1109,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1119,7 +1133,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1143,7 +1157,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1166,7 +1180,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1189,7 +1203,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1211,7 +1225,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1234,7 +1248,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1255,7 +1269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1276,7 +1290,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1300,7 +1314,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1324,7 +1338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1347,7 +1361,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1371,7 +1385,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1395,11 +1409,30 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602202688">
+          <pm:border xmlns:pm="smNativeData" id="1602809269">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1602809269"/>
         </ext>
       </extLst>
     </border>
@@ -1430,7 +1463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,12 +1572,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1559,10 +1586,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1602202688" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1602809269" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1602202688" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1602809269" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -4803,7 +4830,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602809269" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4814,16 +4841,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602809269" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4834,25 +4861,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.500000" customWidth="1" style="0"/>
-    <col min="2" max="2" width="13.045455" customWidth="1" style="0"/>
-    <col min="3" max="9" width="13.527273" customWidth="1" style="0"/>
-    <col min="10" max="10" width="44.245455" customWidth="1" style="0"/>
+    <col min="1" max="1" width="13.045455" customWidth="1" style="0"/>
+    <col min="2" max="8" width="13.527273" customWidth="1" style="0"/>
+    <col min="9" max="9" width="44.245455" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -4860,519 +4886,424 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="24"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="27">
-        <f>ROW()-3</f>
-        <v>1</v>
+    <row r="4" spans="1:9">
+      <c r="A4" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="18" t="s">
         <v>78</v>
       </c>
+      <c r="C4" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="D4" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="28">
-        <f>ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29" t="s">
+      <c r="B8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="28">
-        <f>ROW()-3</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="28">
-        <f>ROW()-3</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="28">
-        <f>ROW()-3</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="28">
-        <f>ROW()-3</f>
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>136</v>
-      </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="28">
-        <f>ROW()-3</f>
-        <v>7</v>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="C10" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="D10" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="28">
-        <f>ROW()-3</f>
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29" t="s">
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="28">
-        <f>ROW()-3</f>
-        <v>9</v>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="28">
-        <f>ROW()-3</f>
-        <v>10</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
-        <v>136</v>
-      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
-      <c r="I13" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="28">
-        <f>ROW()-3</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="C14" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="28">
-        <f>ROW()-3</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18" t="s">
-        <v>140</v>
+      <c r="G14" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="28">
-        <f>ROW()-3</f>
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="C16" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="28">
-        <f>ROW()-3</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="G16" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="28">
-        <f>ROW()-3</f>
-        <v>15</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="28">
-        <f>ROW()-3</f>
-        <v>16</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="28">
-        <f>ROW()-3</f>
-        <v>17</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="31"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="28">
-        <f>ROW()-3</f>
-        <v>18</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="31"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="28">
-        <f>ROW()-3</f>
-        <v>19</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="31"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="27"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="28">
-        <f>ROW()-3</f>
-        <v>20</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="31"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="27"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="28">
-        <f>ROW()-3</f>
-        <v>21</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="31"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation sqref="C4:C9 C20:C24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B4:B9 B20:B24" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C10:C11" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B10:B11" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C12:C13" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B12:B13" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C14" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B14" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C15" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B15" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C16:C17" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B16:B17" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18:C19" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
+    <dataValidation sqref="B18:B19" type="list" operator="equal" errorStyle="stop" allowBlank="1" showErrorMessage="1" view="0">
       <formula1>"Linux,Windows,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,HitachVSP,NetAPP,Zabbix,{Agent},{LocalFile}"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602809269" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5383,16 +5314,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602809269" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5405,7 +5336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
+    <sheetView view="normal" zoomScale="105" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5416,156 +5347,156 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="37" t="s">
-        <v>160</v>
+      <c r="A3" s="28" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="37" t="s">
-        <v>161</v>
+      <c r="A4" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="37" t="s">
-        <v>162</v>
+      <c r="A5" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="37" t="s">
-        <v>163</v>
+      <c r="A6" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="37" t="s">
-        <v>164</v>
+      <c r="A7" s="28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="37" t="s">
-        <v>165</v>
+      <c r="A8" s="28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="37" t="s">
-        <v>166</v>
+      <c r="A9" s="28" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="37" t="s">
-        <v>167</v>
+      <c r="A10" s="28" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="37" t="s">
-        <v>168</v>
+      <c r="A11" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="37" t="s">
-        <v>169</v>
+      <c r="A12" s="28" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="37" t="s">
-        <v>170</v>
+      <c r="A13" s="28" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="37" t="s">
-        <v>171</v>
+      <c r="A14" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="37" t="s">
-        <v>172</v>
+      <c r="A15" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="37" t="s">
-        <v>173</v>
+      <c r="A16" s="28" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="37" t="s">
-        <v>174</v>
+      <c r="A17" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="37" t="s">
-        <v>175</v>
+      <c r="A18" s="28" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="37" t="s">
-        <v>176</v>
+      <c r="A19" s="28" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="37" t="s">
-        <v>177</v>
+      <c r="A20" s="28" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="37" t="s">
-        <v>178</v>
+      <c r="A21" s="28" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="37"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="33"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="33"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="36"/>
+      <c r="A25" s="33"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="36"/>
+      <c r="A26" s="33"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="36"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="36"/>
+      <c r="A28" s="33"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="36"/>
+      <c r="A29" s="33"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="36"/>
+      <c r="A30" s="33"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="36"/>
+      <c r="A31" s="33"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="36"/>
+      <c r="A32" s="33"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="36"/>
+      <c r="A33" s="33"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="33"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="33"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="36"/>
+      <c r="A36" s="33"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="36"/>
+      <c r="A37" s="33"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="33"/>
@@ -5637,7 +5568,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602202688" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1602809269" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5646,16 +5577,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602202688" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602202688" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602202688" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602809269" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/test/resources/getconfig.xlsx
+++ b/src/test/resources/getconfig.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
     <sheet name="検査対象" sheetId="2" r:id="rId5"/>
-    <sheet name="パラメータ パッケージ" sheetId="3" r:id="rId6"/>
+    <sheet name="パラメータ(Packages)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$108</definedName>
@@ -18,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1602809269" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1602809269" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1602809269" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1602809269"/>
+      <pm:revision xmlns:pm="smNativeData" day="1603242574" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1603242574" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1603242574" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1603242574"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="176">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -505,18 +505,6 @@
   </si>
   <si>
     <t>{LocalFile}</t>
-  </si>
-  <si>
-    <t>必須パッケージ</t>
-  </si>
-  <si>
-    <t>packages.requirements</t>
-  </si>
-  <si>
-    <t>tigervnc</t>
-  </si>
-  <si>
-    <t>tigervnc-server</t>
   </si>
   <si>
     <t>binutils</t>
@@ -599,7 +587,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603242574" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -614,7 +602,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603242574" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -630,7 +618,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603242574" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -647,7 +635,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1602809269" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1603242574" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -656,7 +644,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,7 +657,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -680,7 +668,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -691,7 +679,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -702,7 +690,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -713,7 +701,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -724,7 +712,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -735,7 +723,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -746,7 +734,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -757,7 +745,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -768,7 +756,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -779,7 +767,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -790,7 +778,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -801,7 +789,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -812,7 +800,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -823,7 +811,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -834,7 +822,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -845,7 +833,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -856,7 +844,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -873,7 +861,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -884,24 +872,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1602809269" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1603242574" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -917,7 +894,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269"/>
+          <pm:border xmlns:pm="smNativeData" id="1603242574"/>
         </ext>
       </extLst>
     </border>
@@ -936,7 +913,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -960,7 +937,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269"/>
+          <pm:border xmlns:pm="smNativeData" id="1603242574"/>
         </ext>
       </extLst>
     </border>
@@ -979,7 +956,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1001,7 +978,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1022,7 +999,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1044,7 +1021,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1066,7 +1043,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1087,7 +1064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1109,7 +1086,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1133,7 +1110,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1157,7 +1134,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1180,7 +1157,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1203,7 +1180,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1225,7 +1202,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1248,7 +1225,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1269,7 +1246,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1290,7 +1267,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1314,7 +1291,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1338,7 +1315,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1361,7 +1338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1385,7 +1362,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1409,30 +1386,11 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269">
+          <pm:border xmlns:pm="smNativeData" id="1603242574">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1602809269"/>
         </ext>
       </extLst>
     </border>
@@ -1463,7 +1421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,12 +1524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1586,10 +1538,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1602809269" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1603242574" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1602809269" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1603242574" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -4830,7 +4782,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602809269" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603242574" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4841,16 +4793,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1603242574" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603242574" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603242574" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603242574" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602809269" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603242574" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5303,7 +5255,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602809269" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603242574" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5314,16 +5266,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1603242574" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603242574" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603242574" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603242574" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602809269" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603242574" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5334,10 +5286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13"/>
@@ -5346,12 +5298,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5431,27 +5383,19 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="28" t="s">
-        <v>176</v>
-      </c>
+      <c r="A18" s="33"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="28" t="s">
-        <v>177</v>
-      </c>
+      <c r="A19" s="33"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="28" t="s">
-        <v>178</v>
-      </c>
+      <c r="A20" s="33"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="28" t="s">
-        <v>179</v>
-      </c>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="33"/>
@@ -5563,12 +5507,435 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="33"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="33"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="33"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="33"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="33"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="33"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="33"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="33"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="33"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="33"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="33"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="33"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="33"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="33"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="33"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="33"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="33"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="33"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="33"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="33"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="33"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="33"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="33"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="33"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="33"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="33"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="33"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="33"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="33"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="33"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="33"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="33"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="33"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="33"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="33"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="33"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="33"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="33"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="33"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="33"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="33"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="33"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="33"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="33"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="33"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="33"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="33"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="33"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="33"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="33"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="33"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="33"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="33"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="33"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="33"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="33"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="33"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="33"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="33"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="33"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="33"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="33"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="33"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="33"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="33"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="33"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="33"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="33"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="33"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="33"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="33"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="33"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="33"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="33"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="33"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="33"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="33"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="33"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="33"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="33"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="33"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="33"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="33"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="33"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="33"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="33"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="33"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="33"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="33"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="33"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="33"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="33"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="33"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="33"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="33"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="33"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="33"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="33"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="33"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="33"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="33"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="33"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="33"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="33"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="33"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="33"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="33"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="33"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="33"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="33"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="33"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="33"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="33"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="33"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="33"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="33"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="33"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="33"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="33"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="33"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="33"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="33"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="33"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="33"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="33"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="33"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="33"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="33"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="33"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="33"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="33"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="33"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="33"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="33"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="33"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="33"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="33"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="33"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="33"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="33"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="33"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="33"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1602809269" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1603242574" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5577,16 +5944,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1602809269" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1602809269" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1603242574" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1603242574" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603242574" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1603242574" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1602809269" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1603242574" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
